--- a/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Edad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>19.53677079271667</v>
+        <v>19.57136577324042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>19.78385387878427</v>
+        <v>19.80650381128219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19.97571175819568</v>
+        <v>19.98135809642691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19.99883457778943</v>
+        <v>20.00592783380567</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>20.0292195478257</v>
+        <v>20.04139204347608</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>20.11611392850277</v>
+        <v>20.12951242885891</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>20.60516005144628</v>
+        <v>20.6100832687524</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>19.94637794880399</v>
+        <v>19.96576230885674</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>19.86042934587371</v>
+        <v>19.85273832909201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20.03691446448943</v>
+        <v>20.02503232385787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20.37659450782963</v>
+        <v>20.33166840794008</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>20.08712114311532</v>
+        <v>20.08713700508683</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>20.0414717864403</v>
+        <v>20.05133367267737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.27028662241034</v>
+        <v>20.27502967390468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.45421411577949</v>
+        <v>20.49244603076548</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20.76164135241531</v>
+        <v>20.76419152483016</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.51927530801009</v>
+        <v>20.55738819573737</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.60322892338423</v>
+        <v>20.63233855886662</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>21.08419465026913</v>
+        <v>21.11971787643998</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>20.61330156259144</v>
+        <v>20.60838972760939</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.20893538796925</v>
+        <v>20.21446274189407</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20.3861721151764</v>
+        <v>20.37594073211145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20.72807740186878</v>
+        <v>20.70831038163972</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>20.58301881726271</v>
+        <v>20.59917303144173</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>29.50384951979533</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>29.68933471032989</v>
+        <v>29.6893347103299</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>28.87594902406827</v>
+        <v>28.87140255895509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>29.22740585330792</v>
+        <v>29.22855331249141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.03934892999043</v>
+        <v>29.00278706254922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29.41935151881601</v>
+        <v>29.44777849516972</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.34009150414136</v>
+        <v>29.32787994729888</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.53442275406455</v>
+        <v>29.49659645390607</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>29.52495248476565</v>
+        <v>29.51878102498618</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>29.34770466226582</v>
+        <v>29.35776999608409</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>29.14824097334969</v>
+        <v>29.15025730898382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29.42719847709861</v>
+        <v>29.43824542245121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29.33492246414093</v>
+        <v>29.32651931654135</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>29.47894802259294</v>
+        <v>29.47625426900143</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>29.30850188113485</v>
+        <v>29.30543575890646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>29.67388896580455</v>
+        <v>29.66628162824636</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.49424008257828</v>
+        <v>29.50182636860648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.06248640939171</v>
+        <v>30.08722368508839</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>29.82661147227369</v>
+        <v>29.77925238454947</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>29.98874008890134</v>
+        <v>29.97703552016509</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.0087810552111</v>
+        <v>29.99219097244365</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>29.8750419221139</v>
+        <v>29.8977133414181</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>29.455549567496</v>
+        <v>29.4636099945962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29.75498645351756</v>
+        <v>29.74643373585423</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29.66831566597596</v>
+        <v>29.67077786282672</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>29.91246828497701</v>
+        <v>29.90177519819871</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>39.40321393588005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39.90244640787191</v>
+        <v>39.9024464078719</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>39.69007406091076</v>
@@ -953,7 +953,7 @@
         <v>39.51751621403537</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>39.6799401752621</v>
+        <v>39.67994017526211</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>39.76142665993483</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>39.59619676516837</v>
+        <v>39.59949923531767</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>39.45074257598233</v>
+        <v>39.43844463812538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39.18899230253583</v>
+        <v>39.18352189955324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39.64279694178637</v>
+        <v>39.65165513755359</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>39.47597010428649</v>
+        <v>39.43877471235149</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>39.34202770784928</v>
+        <v>39.36161340038636</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>39.30800290725762</v>
+        <v>39.28718005977826</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>39.49360974635001</v>
+        <v>39.49555581764955</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>39.58345979405327</v>
+        <v>39.61301584876134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39.44683645735171</v>
+        <v>39.4583129092611</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39.30028379564567</v>
+        <v>39.29788746557416</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>39.63486662928432</v>
+        <v>39.63655702806977</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>40.07159425471554</v>
+        <v>40.07138269462875</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>39.90668945744819</v>
+        <v>39.89663792066391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>39.65132211429655</v>
+        <v>39.63095756282939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40.13692109149621</v>
+        <v>40.15351504085692</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>39.91469357204056</v>
+        <v>39.91737433953261</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>39.7983862245931</v>
+        <v>39.80938274974586</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>39.75957452082518</v>
+        <v>39.72790562645734</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>39.8762409789321</v>
+        <v>39.86597464867786</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>39.91367019412823</v>
+        <v>39.94352532763078</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39.77683128172564</v>
+        <v>39.75897518715473</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39.6181837110632</v>
+        <v>39.62458134010372</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>39.93096724634169</v>
+        <v>39.95225076187202</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>49.36746518541725</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>49.27342861318619</v>
+        <v>49.2734286131862</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>49.03556929502506</v>
+        <v>49.05164460453953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>48.56729518344282</v>
+        <v>48.53949710029131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49.13983575618366</v>
+        <v>49.15627338474371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49.08770046246701</v>
+        <v>49.1064414032382</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>48.86979735107726</v>
+        <v>48.89666540798756</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>48.96169070089167</v>
+        <v>48.96088785241238</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>49.08992079510588</v>
+        <v>49.08177087628541</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.07624097190669</v>
+        <v>49.08401189635273</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>49.05439279744489</v>
+        <v>49.03309412147629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48.84007038627199</v>
+        <v>48.83962686520815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49.18856713332805</v>
+        <v>49.1848006149128</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>49.12479152604038</v>
+        <v>49.120783428328</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>49.59984331826584</v>
+        <v>49.60709427026884</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>49.0332102131554</v>
+        <v>49.03955693149105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>49.63777105204279</v>
+        <v>49.65593532346512</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49.52077826649175</v>
+        <v>49.53685197345393</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>49.42148840297479</v>
+        <v>49.41600222327916</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>49.48610372824735</v>
+        <v>49.50613550353428</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>49.59380594430188</v>
+        <v>49.59451721462724</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.4120635170502</v>
+        <v>49.40793207206621</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>49.44488916301999</v>
+        <v>49.4287079172273</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>49.19185722212906</v>
+        <v>49.20363729886247</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49.53582012541909</v>
+        <v>49.54406558593748</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>49.40308343919823</v>
+        <v>49.40700279058672</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>59.58885297352451</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>59.1487049927915</v>
+        <v>59.14870499279152</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>59.69793369254991</v>
@@ -1237,7 +1237,7 @@
         <v>59.42225924476794</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>59.17722030308637</v>
+        <v>59.17722030308636</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>59.54931166508312</v>
+        <v>59.51822148226012</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>58.9590073560539</v>
+        <v>58.94018983293751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58.96221991990695</v>
+        <v>58.97578149417975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58.99685672561617</v>
+        <v>58.98861597982655</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>59.22912525434813</v>
+        <v>59.20738519329234</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>59.06893907206808</v>
+        <v>59.07818212766315</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>59.28889067080693</v>
+        <v>59.29430610130463</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>58.9662230524233</v>
+        <v>58.96722398766869</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>59.48655997315046</v>
+        <v>59.47491436914984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59.12396953029295</v>
+        <v>59.07161939056977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59.21909803819132</v>
+        <v>59.22821448162872</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>59.03863499621617</v>
+        <v>59.03647589035732</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>60.18045594752495</v>
+        <v>60.17641890749552</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>59.55838457434218</v>
+        <v>59.57524235632256</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59.53405079425742</v>
+        <v>59.52284850701303</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59.43312361127779</v>
+        <v>59.41828380371375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>59.81106034645015</v>
+        <v>59.81235761994965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>59.64887699768872</v>
+        <v>59.67413043990189</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>59.85884542783904</v>
+        <v>59.84713312864971</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>59.3420870367047</v>
+        <v>59.32889732261327</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>59.92258832839574</v>
+        <v>59.90961610329477</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59.54746484431565</v>
+        <v>59.51512885353556</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>59.63704674933167</v>
+        <v>59.62497432502897</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>59.30999135130259</v>
+        <v>59.32538049090957</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>69.28791723456055</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>69.18126405013881</v>
+        <v>69.18126405013879</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>69.10892550466788</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>68.86310408249493</v>
+        <v>68.89342850828018</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>69.36107140848181</v>
+        <v>69.36201243821367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69.00458496602398</v>
+        <v>69.01519498866475</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69.08129537827132</v>
+        <v>69.06703496687406</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>68.68119303755242</v>
+        <v>68.69748847278971</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>68.62002288745093</v>
+        <v>68.66977351537886</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>68.96764483731118</v>
+        <v>68.96459321174302</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>68.99437914275697</v>
+        <v>68.98282958941535</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>68.88531150273658</v>
+        <v>68.88820983116827</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69.0921565682446</v>
+        <v>69.09071744068298</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69.09276519328435</v>
+        <v>69.0759330152647</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>69.09226125192971</v>
+        <v>69.09758180803249</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>69.54447805090427</v>
+        <v>69.5267442392618</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>70.0383707267743</v>
+        <v>70.03028812046192</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>69.60660241336279</v>
+        <v>69.62922734664976</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>69.54208679431291</v>
+        <v>69.5240865636857</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>69.33656680089366</v>
+        <v>69.34177202327626</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>69.26359272602519</v>
+        <v>69.32735148555906</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>69.57855874499388</v>
+        <v>69.60998364235735</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>69.37214821527547</v>
+        <v>69.37810446879232</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>69.34372102806029</v>
+        <v>69.33419704948643</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>69.54637572700484</v>
+        <v>69.57300354102891</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>69.52053238881196</v>
+        <v>69.51483334933978</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>69.37610153254251</v>
+        <v>69.39602099314662</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>80.24996753863982</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>81.8194430233294</v>
+        <v>81.81944302332938</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>78.84838127961608</v>
+        <v>78.82115535788083</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>79.29611133018487</v>
+        <v>79.2641219769023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79.71744199226849</v>
+        <v>79.75911739417198</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>81.00140957434806</v>
+        <v>80.96716429824015</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>78.30149836495221</v>
+        <v>78.3094432825438</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>79.34942726902403</v>
+        <v>79.42603893775119</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>79.75132514721673</v>
+        <v>79.76239698096832</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>81.67654291026005</v>
+        <v>81.62719816583986</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>78.61420322403404</v>
+        <v>78.64590025289441</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>79.50866026376545</v>
+        <v>79.49080745160865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79.89323460859309</v>
+        <v>79.90132539348312</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>81.52215673409553</v>
+        <v>81.5218298274571</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>79.98314950669511</v>
+        <v>80.01166919031718</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>80.39362459050835</v>
+        <v>80.40531412480448</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80.62775043286807</v>
+        <v>80.64948322601808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81.92671661074158</v>
+        <v>81.967942098728</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>79.13380997910184</v>
+        <v>79.16707423885829</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>80.32712191213766</v>
+        <v>80.37445478486529</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>80.81736000467336</v>
+        <v>80.89162651852358</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>82.5150776878303</v>
+        <v>82.48337539992035</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>79.33314390418985</v>
+        <v>79.30912939435125</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>80.23123783319608</v>
+        <v>80.21556469783839</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80.66950302818628</v>
+        <v>80.6441899218343</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>82.11065868406625</v>
+        <v>82.13458939289212</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>47.16037214781937</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>49.40230813333894</v>
+        <v>49.40230813333893</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>42.78194473705052</v>
+        <v>42.82472237840304</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>44.12898017912811</v>
+        <v>44.13310010836286</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45.39887020075681</v>
+        <v>45.43503875518611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47.78291926427102</v>
+        <v>47.76563970905872</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>45.14446792638172</v>
+        <v>45.15223438989366</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>46.42486276402001</v>
+        <v>46.38840177725088</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>47.65755789825478</v>
+        <v>47.56219227452861</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>49.61829104665178</v>
+        <v>49.64845504322599</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>44.13917326168215</v>
+        <v>44.23417865194725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>45.46958108763615</v>
+        <v>45.5263303964002</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46.73985039564035</v>
+        <v>46.73403502535284</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>48.95236289352686</v>
+        <v>48.94453933627693</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>44.01355725993805</v>
+        <v>44.0380482463224</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>45.33882846829081</v>
+        <v>45.38326129264631</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>46.6062244410598</v>
+        <v>46.61347668948154</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>49.25669570766238</v>
+        <v>49.25596645807244</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>46.39259333682042</v>
+        <v>46.44170202555343</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>47.6758819525401</v>
+        <v>47.69672832872812</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>48.91776328895158</v>
+        <v>48.91361832385488</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>50.8178009956272</v>
+        <v>50.8861498850961</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>45.03694791913428</v>
+        <v>45.05509725517645</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46.35113148136972</v>
+        <v>46.39557063886974</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47.62531071151127</v>
+        <v>47.59169784040002</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>49.86962761903977</v>
+        <v>49.85200113576888</v>
       </c>
     </row>
     <row r="28">
